--- a/multiple_pages.xlsx
+++ b/multiple_pages.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>42,056 les</t>
+          <t xml:space="preserve">58,269 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">29998 </t>
+          <t xml:space="preserve">14088 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +483,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>500 les</t>
+          <t xml:space="preserve">51,533 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">30265 </t>
+          <t xml:space="preserve">20294 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,29 +515,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grand</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21,828 les</t>
+          <t xml:space="preserve">90,521 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">23998 </t>
+          <t xml:space="preserve">13000 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,29 +547,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Escape</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>43,420 les</t>
+          <t xml:space="preserve">26,400 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8998 </t>
+          <t xml:space="preserve">14995 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,29 +579,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>112,948 les</t>
+          <t xml:space="preserve">55,230 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8995 </t>
+          <t xml:space="preserve">16471 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,29 +611,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INFINITIJ</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>137,700 les</t>
+          <t xml:space="preserve">137 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">9250 </t>
+          <t xml:space="preserve">26190 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LincolnMK</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>116,058 les</t>
+          <t xml:space="preserve">58,269 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">7000 </t>
+          <t xml:space="preserve">14088 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,19 +685,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grand</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>90,783 les</t>
+          <t xml:space="preserve">56,630 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">19998 </t>
+          <t xml:space="preserve">16804 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,29 +707,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grand</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>91,120 les</t>
+          <t xml:space="preserve">50,480 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">7450 </t>
+          <t xml:space="preserve">17741 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>110,900 les</t>
+          <t xml:space="preserve">48,223 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">13777 </t>
+          <t xml:space="preserve">17985 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>67,965 les</t>
+          <t xml:space="preserve">51,533 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">17975 </t>
+          <t xml:space="preserve">20294 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,29 +803,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RamPro</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Master</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>42,056 les</t>
+          <t xml:space="preserve">59,297 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">29998 </t>
+          <t xml:space="preserve">16298 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,29 +835,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>125,891 les</t>
+          <t xml:space="preserve">37,392 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">22995 </t>
+          <t xml:space="preserve">19495 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,29 +867,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Suburban</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>132,935 les</t>
+          <t xml:space="preserve">61,065 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">5350 </t>
+          <t xml:space="preserve">17219 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,29 +899,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fusion</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>122,818 les</t>
+          <t xml:space="preserve">59,194 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">6995 </t>
+          <t xml:space="preserve">15227 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -931,29 +931,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Altima</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>103,830 les</t>
+          <t xml:space="preserve">55,328 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">7995 </t>
+          <t xml:space="preserve">16099 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,29 +963,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Titan</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>84,824 les</t>
+          <t xml:space="preserve">29,180 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">17662 </t>
+          <t xml:space="preserve">24900 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,29 +995,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wrangler</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>105,172 les</t>
+          <t xml:space="preserve">30,035 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">6975 </t>
+          <t xml:space="preserve">38990 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,29 +1027,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Transit</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>120,525 les</t>
+          <t xml:space="preserve">116,868 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6000 </t>
+          <t xml:space="preserve">17088 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1059,29 +1059,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tacoma</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>100,435 les</t>
+          <t xml:space="preserve">58,924 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">10650 </t>
+          <t xml:space="preserve">16498 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1091,29 +1091,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Audi</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>145,545 les</t>
+          <t xml:space="preserve">2,546 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9750 </t>
+          <t xml:space="preserve">31125 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1123,29 +1123,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>113,839 les</t>
+          <t xml:space="preserve">10,821 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">7995 </t>
+          <t xml:space="preserve">29465 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1155,29 +1155,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Civic</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>500 les</t>
+          <t xml:space="preserve">52,851 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">30265 </t>
+          <t xml:space="preserve">17990 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1192,24 +1192,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jeep</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grand</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>107,060 les</t>
+          <t xml:space="preserve">90,521 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">13850 </t>
+          <t xml:space="preserve">13000 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,29 +1219,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>63,172 les</t>
+          <t xml:space="preserve">62,654 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">11795 </t>
+          <t xml:space="preserve">16595 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,29 +1251,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Volt</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8,329 les</t>
+          <t xml:space="preserve">50,776 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">27913 </t>
+          <t xml:space="preserve">18349 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1283,29 +1283,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tacoma</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>125,351 les</t>
+          <t xml:space="preserve">20,652 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">19995 </t>
+          <t xml:space="preserve">46977 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1315,29 +1315,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Silverado</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>116,200 les</t>
+          <t xml:space="preserve">30,350 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">14995 </t>
+          <t xml:space="preserve">59750 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1347,29 +1347,29 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tacoma</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>89,180 les</t>
+          <t xml:space="preserve">26,752 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">14995 </t>
+          <t xml:space="preserve">62850 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Volvo</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>86,826 les</t>
+          <t xml:space="preserve">30,799 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">14788 </t>
+          <t xml:space="preserve">25995 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1411,29 +1411,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GMC</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Acadia</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32,250 les</t>
+          <t xml:space="preserve">19,962 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">18000 </t>
+          <t xml:space="preserve">21700 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,29 +1443,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kona</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13,934 les</t>
+          <t xml:space="preserve">51,945 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">16300 </t>
+          <t xml:space="preserve">20495 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1475,29 +1475,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kona</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>120,645 les</t>
+          <t xml:space="preserve">75,641 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">11495 </t>
+          <t xml:space="preserve">15789 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,17 +1507,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Dodge</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Equinox</t>
+          <t>Charger</t>
         </is>
       </c>
     </row>
